--- a/Excel.TemplateEngine.Tests/ObjectPrintingTests/Files/simpleWithItemsList_template.xlsx
+++ b/Excel.TemplateEngine.Tests/ObjectPrintingTests/Files/simpleWithItemsList_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Ценовой лист</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Value::ItemsList[].Name</t>
+  </si>
+  <si>
+    <t>Value::ItemsList[].Index</t>
   </si>
 </sst>
 </file>
@@ -271,12 +274,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -760,7 +760,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A13" activeCellId="1" sqref="B13 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,234 +785,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="50" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
       <c r="H8"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
       <c r="H9"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
       <c r="H10"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
+      <c r="A12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="33"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="32"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1021,52 +1023,52 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="15">
